--- a/Template/Шаблон для загрузки входящих писем в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки входящих писем в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -207,13 +207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,50 +289,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -352,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -371,8 +339,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,492 +716,492 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" style="25" customWidth="1"/>
-    <col min="14" max="15" width="13.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" style="9" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="14" t="s">
         <v>22</v>
       </c>
       <c r="S1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="6"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -1239,57 +1228,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+    <row r="2" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="11">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="11">
         <v>7</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="11">
         <v>14</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Template/Шаблон для загрузки входящих писем в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки входящих писем в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import\rx-util-importdata-net-core-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Дополнительно" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ВходящиеПисьма!$A$1:$R$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ВходящиеПисьма!$A$1:$S$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Содержание</t>
   </si>
@@ -140,12 +140,15 @@
   </si>
   <si>
     <t>Подробности</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -712,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -732,15 +735,15 @@
     <col min="9" max="9" width="11.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" style="9" customWidth="1"/>
-    <col min="14" max="15" width="13.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="5"/>
+    <col min="12" max="14" width="13.42578125" style="9" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
@@ -780,26 +783,29 @@
       <c r="M1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="4"/>
       <c r="C2" s="17"/>
@@ -815,12 +821,12 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="15"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="4"/>
       <c r="C3" s="17"/>
@@ -836,11 +842,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="15"/>
+      <c r="P3" s="3"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="15"/>
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="4"/>
       <c r="C4" s="17"/>
@@ -856,11 +863,12 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="15"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="4"/>
       <c r="C5" s="17"/>
@@ -876,11 +884,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="15"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="4"/>
       <c r="C6" s="17"/>
@@ -896,11 +905,12 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="15"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="4"/>
       <c r="C7" s="17"/>
@@ -916,11 +926,12 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="15"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="4"/>
       <c r="C8" s="17"/>
@@ -936,11 +947,12 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
-    </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="4"/>
       <c r="C9" s="17"/>
@@ -956,11 +968,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="15"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="4"/>
       <c r="C10" s="17"/>
@@ -976,11 +989,12 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="15"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="4"/>
       <c r="C11" s="17"/>
@@ -996,11 +1010,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="15"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
-    </row>
-    <row r="12" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
@@ -1016,11 +1031,12 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="15"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
-    </row>
-    <row r="13" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="4"/>
       <c r="C13" s="17"/>
@@ -1036,11 +1052,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="15"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="4"/>
       <c r="C14" s="17"/>
@@ -1056,11 +1073,12 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="15"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
-    </row>
-    <row r="15" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="15"/>
+    </row>
+    <row r="15" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="4"/>
       <c r="C15" s="17"/>
@@ -1076,11 +1094,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="15"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="4"/>
       <c r="C16" s="17"/>
@@ -1096,11 +1115,12 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="15"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
-    </row>
-    <row r="17" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
@@ -1116,11 +1136,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="15"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
-    </row>
-    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17"/>
@@ -1136,11 +1157,12 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="15"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
-    </row>
-    <row r="19" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="4"/>
       <c r="C19" s="17"/>
@@ -1156,11 +1178,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="15"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="4"/>
       <c r="C20" s="17"/>
@@ -1176,36 +1199,17 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="15"/>
+      <c r="P20" s="3"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-    </row>
-    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="S20" s="15"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:R22"/>
+  <autoFilter ref="A1:S21"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
